--- a/intervention/science_double_auto.xlsx
+++ b/intervention/science_double_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,41 +442,41 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V931101109012</t>
+          <t>T931383615020</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N931252508050</t>
+          <t>V931101109012</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V931414517045</t>
+          <t>N931252508050</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T931383615020</t>
+          <t>V931414517045</t>
         </is>
       </c>
     </row>
@@ -492,51 +492,51 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F931100609012</t>
+          <t>K931252910051</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J931384210007</t>
+          <t>V931101109041</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>U931253114004</t>
+          <t>V333218013124</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>V931100509030</t>
+          <t>L931383612038</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A931252108046</t>
+          <t>R931101109037</t>
         </is>
       </c>
     </row>
@@ -552,51 +552,51 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R931101109037</t>
+          <t>V931100509030</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>L931383612038</t>
+          <t>U931253114004</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>V333218013124</t>
+          <t>F931100609012</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>J931101109071</t>
+          <t>U931325208066</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>K931252910051</t>
+          <t>T887690719015</t>
         </is>
       </c>
     </row>
@@ -612,11 +612,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>U931325208066</t>
+          <t>J931101109071</t>
         </is>
       </c>
     </row>
@@ -632,61 +632,61 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A380404117005</t>
+          <t>Y931252508056</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K931100609063</t>
+          <t>A380404117005</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>F931252108061</t>
+          <t>K931100609063</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>U931258914007</t>
+          <t>F931252108061</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M931412019009</t>
+          <t>M931325212046</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C931101008023</t>
+          <t>U931258914007</t>
         </is>
       </c>
     </row>
@@ -702,41 +702,191 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>M931325212046</t>
+          <t>M931412019009</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Y931252508056</t>
+          <t>C931101008023</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T887690719015</t>
+          <t>Q931253109015</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F931252509025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>U931252110024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>B931235209044</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Q931252108040</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>J931384210007</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A931252108046</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Z931325309007</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>K931325309035</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Y931325210014</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>H931321309010</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>M931259308029</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R931253116053</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>N931253409013</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>K931252509020</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>K931383410019</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>V931101109041</t>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B931400418001</t>
         </is>
       </c>
     </row>
